--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H2">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I2">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J2">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N2">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O2">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P2">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q2">
-        <v>187.7605335818357</v>
+        <v>4.712437686892001</v>
       </c>
       <c r="R2">
-        <v>187.7605335818357</v>
+        <v>18.849750747568</v>
       </c>
       <c r="S2">
-        <v>0.1708705315455446</v>
+        <v>0.002937452624526185</v>
       </c>
       <c r="T2">
-        <v>0.1708705315455446</v>
+        <v>0.00178515097416639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H3">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I3">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J3">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N3">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P3">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q3">
-        <v>291.5003140127114</v>
+        <v>7.9151570895735</v>
       </c>
       <c r="R3">
-        <v>291.5003140127114</v>
+        <v>47.490942537441</v>
       </c>
       <c r="S3">
-        <v>0.2652783982387647</v>
+        <v>0.004933836903770091</v>
       </c>
       <c r="T3">
-        <v>0.2652783982387647</v>
+        <v>0.004497592751762564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H4">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I4">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J4">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N4">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O4">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P4">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q4">
-        <v>0.83093902681601</v>
+        <v>0.02728458544933333</v>
       </c>
       <c r="R4">
-        <v>0.83093902681601</v>
+        <v>0.163707512696</v>
       </c>
       <c r="S4">
-        <v>0.0007561918923292027</v>
+        <v>1.700758343398122E-05</v>
       </c>
       <c r="T4">
-        <v>0.0007561918923292027</v>
+        <v>1.550379257960884E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H5">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I5">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J5">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N5">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O5">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P5">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q5">
-        <v>110.8502225640491</v>
+        <v>2.818188962261833</v>
       </c>
       <c r="R5">
-        <v>110.8502225640491</v>
+        <v>16.909133773571</v>
       </c>
       <c r="S5">
-        <v>0.100878688881684</v>
+        <v>0.001756690934425182</v>
       </c>
       <c r="T5">
-        <v>0.100878688881684</v>
+        <v>0.001601366353987179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H6">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I6">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J6">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N6">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O6">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P6">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q6">
-        <v>101.7806693116781</v>
+        <v>2.78232637291375</v>
       </c>
       <c r="R6">
-        <v>101.7806693116781</v>
+        <v>11.129305491655</v>
       </c>
       <c r="S6">
-        <v>0.09262498744853484</v>
+        <v>0.001734336334915917</v>
       </c>
       <c r="T6">
-        <v>0.09262498744853484</v>
+        <v>0.001053992214872474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H7">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I7">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J7">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N7">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O7">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P7">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q7">
-        <v>110.0787957160294</v>
+        <v>217.1772124913387</v>
       </c>
       <c r="R7">
-        <v>110.0787957160294</v>
+        <v>1303.063274948032</v>
       </c>
       <c r="S7">
-        <v>0.1001766557490812</v>
+        <v>0.1353753227537551</v>
       </c>
       <c r="T7">
-        <v>0.1001766557490812</v>
+        <v>0.1234055933060042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H8">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J8">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N8">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O8">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P8">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q8">
-        <v>170.8985530943758</v>
+        <v>364.777609245876</v>
       </c>
       <c r="R8">
-        <v>170.8985530943758</v>
+        <v>3282.998483212884</v>
       </c>
       <c r="S8">
-        <v>0.1555253708036196</v>
+        <v>0.2273806078387393</v>
       </c>
       <c r="T8">
-        <v>0.1555253708036196</v>
+        <v>0.3109138162609604</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H9">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J9">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N9">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O9">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P9">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q9">
-        <v>0.4871565160177233</v>
+        <v>1.257436300611555</v>
       </c>
       <c r="R9">
-        <v>0.4871565160177233</v>
+        <v>11.316926705504</v>
       </c>
       <c r="S9">
-        <v>0.0004433343432183175</v>
+        <v>0.0007838108017173579</v>
       </c>
       <c r="T9">
-        <v>0.0004433343432183175</v>
+        <v>0.001071760735908225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H10">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J10">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N10">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O10">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P10">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q10">
-        <v>64.98841248438387</v>
+        <v>129.8789424421116</v>
       </c>
       <c r="R10">
-        <v>64.98841248438387</v>
+        <v>1168.910481979004</v>
       </c>
       <c r="S10">
-        <v>0.05914237871862364</v>
+        <v>0.08095878729780846</v>
       </c>
       <c r="T10">
-        <v>0.05914237871862364</v>
+        <v>0.1107007574562941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.068161333333333</v>
+      </c>
+      <c r="H11">
+        <v>18.204484</v>
+      </c>
+      <c r="I11">
+        <v>0.5244270828216987</v>
+      </c>
+      <c r="J11">
+        <v>0.6189532915869436</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.1309775</v>
+      </c>
+      <c r="N11">
+        <v>42.261955</v>
+      </c>
+      <c r="O11">
+        <v>0.1524111868891667</v>
+      </c>
+      <c r="P11">
+        <v>0.1177170633360173</v>
+      </c>
+      <c r="Q11">
+        <v>128.2261806010367</v>
+      </c>
+      <c r="R11">
+        <v>769.35708360622</v>
+      </c>
+      <c r="S11">
+        <v>0.07992855412967841</v>
+      </c>
+      <c r="T11">
+        <v>0.07286136382777661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.170058</v>
+      </c>
+      <c r="I12">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J12">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>35.789624</v>
+      </c>
+      <c r="N12">
+        <v>71.57924800000001</v>
+      </c>
+      <c r="O12">
+        <v>0.258139457682779</v>
+      </c>
+      <c r="P12">
+        <v>0.1993778771086309</v>
+      </c>
+      <c r="Q12">
+        <v>2.028770626064</v>
+      </c>
+      <c r="R12">
+        <v>12.172623756384</v>
+      </c>
+      <c r="S12">
+        <v>0.001264614621148179</v>
+      </c>
+      <c r="T12">
+        <v>0.001152798859140004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.170058</v>
+      </c>
+      <c r="I13">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J13">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>60.113367</v>
+      </c>
+      <c r="N13">
+        <v>180.340101</v>
+      </c>
+      <c r="O13">
+        <v>0.4335790718803266</v>
+      </c>
+      <c r="P13">
+        <v>0.5023219368682956</v>
+      </c>
+      <c r="Q13">
+        <v>3.407586321762</v>
+      </c>
+      <c r="R13">
+        <v>30.668276895858</v>
+      </c>
+      <c r="S13">
+        <v>0.00212408609921821</v>
+      </c>
+      <c r="T13">
+        <v>0.002904415294918901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.170058</v>
+      </c>
+      <c r="I14">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J14">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2072186666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.621656</v>
+      </c>
+      <c r="O14">
+        <v>0.001494603973349423</v>
+      </c>
+      <c r="P14">
+        <v>0.001731569652308208</v>
+      </c>
+      <c r="Q14">
+        <v>0.01174639733866666</v>
+      </c>
+      <c r="R14">
+        <v>0.105717576048</v>
+      </c>
+      <c r="S14">
+        <v>7.32200359639144E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.001190076176182E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.170058</v>
+      </c>
+      <c r="I15">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J15">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.40334366666667</v>
+      </c>
+      <c r="N15">
+        <v>64.210031</v>
+      </c>
+      <c r="O15">
+        <v>0.1543756795743782</v>
+      </c>
+      <c r="P15">
+        <v>0.178851553034748</v>
+      </c>
+      <c r="Q15">
+        <v>1.213269939088667</v>
+      </c>
+      <c r="R15">
+        <v>10.919429451798</v>
+      </c>
+      <c r="S15">
+        <v>0.0007562801258355199</v>
+      </c>
+      <c r="T15">
+        <v>0.001034116067860119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.170058</v>
+      </c>
+      <c r="I16">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J16">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>21.1309775</v>
+      </c>
+      <c r="N16">
+        <v>42.261955</v>
+      </c>
+      <c r="O16">
+        <v>0.1524111868891667</v>
+      </c>
+      <c r="P16">
+        <v>0.1177170633360173</v>
+      </c>
+      <c r="Q16">
+        <v>1.197830590565</v>
+      </c>
+      <c r="R16">
+        <v>7.186983543389999</v>
+      </c>
+      <c r="S16">
+        <v>0.0007466561567020986</v>
+      </c>
+      <c r="T16">
+        <v>0.0006806376829919504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.434455</v>
+      </c>
+      <c r="I17">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J17">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>35.789624</v>
+      </c>
+      <c r="N17">
+        <v>71.57924800000001</v>
+      </c>
+      <c r="O17">
+        <v>0.258139457682779</v>
+      </c>
+      <c r="P17">
+        <v>0.1993778771086309</v>
+      </c>
+      <c r="Q17">
+        <v>5.182993698306667</v>
+      </c>
+      <c r="R17">
+        <v>31.09796218984</v>
+      </c>
+      <c r="S17">
+        <v>0.00323076918010874</v>
+      </c>
+      <c r="T17">
+        <v>0.002945108306270041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="H11">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="I11">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="J11">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>19.2262951485134</v>
-      </c>
-      <c r="N11">
-        <v>19.2262951485134</v>
-      </c>
-      <c r="O11">
-        <v>0.1469284498271347</v>
-      </c>
-      <c r="P11">
-        <v>0.1469284498271347</v>
-      </c>
-      <c r="Q11">
-        <v>59.67118483990524</v>
-      </c>
-      <c r="R11">
-        <v>59.67118483990524</v>
-      </c>
-      <c r="S11">
-        <v>0.05430346237859986</v>
-      </c>
-      <c r="T11">
-        <v>0.05430346237859986</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.434455</v>
+      </c>
+      <c r="I18">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J18">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>60.113367</v>
+      </c>
+      <c r="N18">
+        <v>180.340101</v>
+      </c>
+      <c r="O18">
+        <v>0.4335790718803266</v>
+      </c>
+      <c r="P18">
+        <v>0.5023219368682956</v>
+      </c>
+      <c r="Q18">
+        <v>8.705517619995</v>
+      </c>
+      <c r="R18">
+        <v>78.349658579955</v>
+      </c>
+      <c r="S18">
+        <v>0.005426500524737723</v>
+      </c>
+      <c r="T18">
+        <v>0.007420043437850563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.434455</v>
+      </c>
+      <c r="I19">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J19">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2072186666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.621656</v>
+      </c>
+      <c r="O19">
+        <v>0.001494603973349423</v>
+      </c>
+      <c r="P19">
+        <v>0.001731569652308208</v>
+      </c>
+      <c r="Q19">
+        <v>0.03000906194222222</v>
+      </c>
+      <c r="R19">
+        <v>0.27008155748</v>
+      </c>
+      <c r="S19">
+        <v>1.870585960360726E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.557786370209712E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.434455</v>
+      </c>
+      <c r="I20">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J20">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.40334366666667</v>
+      </c>
+      <c r="N20">
+        <v>64.210031</v>
+      </c>
+      <c r="O20">
+        <v>0.1543756795743782</v>
+      </c>
+      <c r="P20">
+        <v>0.178851553034748</v>
+      </c>
+      <c r="Q20">
+        <v>3.099596557567222</v>
+      </c>
+      <c r="R20">
+        <v>27.896369018105</v>
+      </c>
+      <c r="S20">
+        <v>0.001932103647401891</v>
+      </c>
+      <c r="T20">
+        <v>0.002641903916676476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.434455</v>
+      </c>
+      <c r="I21">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J21">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>21.1309775</v>
+      </c>
+      <c r="N21">
+        <v>42.261955</v>
+      </c>
+      <c r="O21">
+        <v>0.1524111868891667</v>
+      </c>
+      <c r="P21">
+        <v>0.1177170633360173</v>
+      </c>
+      <c r="Q21">
+        <v>3.060152943254167</v>
+      </c>
+      <c r="R21">
+        <v>18.360917659525</v>
+      </c>
+      <c r="S21">
+        <v>0.001907516850486365</v>
+      </c>
+      <c r="T21">
+        <v>0.001738856417012242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.1696935</v>
+      </c>
+      <c r="H22">
+        <v>10.339387</v>
+      </c>
+      <c r="I22">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J22">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>35.789624</v>
+      </c>
+      <c r="N22">
+        <v>71.57924800000001</v>
+      </c>
+      <c r="O22">
+        <v>0.258139457682779</v>
+      </c>
+      <c r="P22">
+        <v>0.1993778771086309</v>
+      </c>
+      <c r="Q22">
+        <v>185.021386560244</v>
+      </c>
+      <c r="R22">
+        <v>740.0855462409761</v>
+      </c>
+      <c r="S22">
+        <v>0.1153312985032407</v>
+      </c>
+      <c r="T22">
+        <v>0.07008922566305022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.1696935</v>
+      </c>
+      <c r="H23">
+        <v>10.339387</v>
+      </c>
+      <c r="I23">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J23">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>60.113367</v>
+      </c>
+      <c r="N23">
+        <v>180.340101</v>
+      </c>
+      <c r="O23">
+        <v>0.4335790718803266</v>
+      </c>
+      <c r="P23">
+        <v>0.5023219368682956</v>
+      </c>
+      <c r="Q23">
+        <v>310.7676826430146</v>
+      </c>
+      <c r="R23">
+        <v>1864.606095858087</v>
+      </c>
+      <c r="S23">
+        <v>0.1937140405138613</v>
+      </c>
+      <c r="T23">
+        <v>0.1765860691228031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.1696935</v>
+      </c>
+      <c r="H24">
+        <v>10.339387</v>
+      </c>
+      <c r="I24">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J24">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2072186666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.621656</v>
+      </c>
+      <c r="O24">
+        <v>0.001494603973349423</v>
+      </c>
+      <c r="P24">
+        <v>0.001731569652308208</v>
+      </c>
+      <c r="Q24">
+        <v>1.071256994145333</v>
+      </c>
+      <c r="R24">
+        <v>6.427541964872</v>
+      </c>
+      <c r="S24">
+        <v>0.0006677577249980852</v>
+      </c>
+      <c r="T24">
+        <v>0.0006087153593565154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.1696935</v>
+      </c>
+      <c r="H25">
+        <v>10.339387</v>
+      </c>
+      <c r="I25">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J25">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.40334366666667</v>
+      </c>
+      <c r="N25">
+        <v>64.210031</v>
+      </c>
+      <c r="O25">
+        <v>0.1543756795743782</v>
+      </c>
+      <c r="P25">
+        <v>0.178851553034748</v>
+      </c>
+      <c r="Q25">
+        <v>110.6487266318328</v>
+      </c>
+      <c r="R25">
+        <v>663.892359790997</v>
+      </c>
+      <c r="S25">
+        <v>0.06897181756890713</v>
+      </c>
+      <c r="T25">
+        <v>0.06287340923993012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.1696935</v>
+      </c>
+      <c r="H26">
+        <v>10.339387</v>
+      </c>
+      <c r="I26">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J26">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>21.1309775</v>
+      </c>
+      <c r="N26">
+        <v>42.261955</v>
+      </c>
+      <c r="O26">
+        <v>0.1524111868891667</v>
+      </c>
+      <c r="P26">
+        <v>0.1177170633360173</v>
+      </c>
+      <c r="Q26">
+        <v>109.2406770303963</v>
+      </c>
+      <c r="R26">
+        <v>436.962708121585</v>
+      </c>
+      <c r="S26">
+        <v>0.06809412341738386</v>
+      </c>
+      <c r="T26">
+        <v>0.04138221319336399</v>
       </c>
     </row>
   </sheetData>
